--- a/Redemittel - zusammen etwas planen.xlsx
+++ b/Redemittel - zusammen etwas planen.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12195"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Общие" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="übenlist" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>ö</t>
   </si>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +381,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -426,6 +434,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -722,9 +731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,7 +748,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -755,7 +764,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -787,7 +796,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1303,6 +1312,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="66.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1342,16 +1435,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>